--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="E337" sqref="E337"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="1">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -225,13 +225,13 @@
     <t>Count</t>
   </si>
   <si>
-    <t>feet</t>
-  </si>
-  <si>
     <t>anwar</t>
   </si>
   <si>
     <t>amjad</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1789,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E97">
         <v>395</v>
@@ -1866,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E104">
         <v>395</v>
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E144">
         <v>395</v>
@@ -2510,7 +2510,7 @@
         <v>28</v>
       </c>
       <c r="D162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E162">
         <v>395</v>
@@ -3286,7 +3286,7 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E232">
         <v>395</v>
@@ -3440,7 +3440,7 @@
         <v>29</v>
       </c>
       <c r="D246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E246">
         <v>395</v>
@@ -3616,7 +3616,7 @@
         <v>45</v>
       </c>
       <c r="D262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E262">
         <v>395</v>
@@ -3905,7 +3905,7 @@
         <v>25</v>
       </c>
       <c r="D288" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E288">
         <v>411</v>
@@ -4026,7 +4026,7 @@
         <v>36</v>
       </c>
       <c r="D299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E299">
         <v>411</v>
@@ -4194,7 +4194,7 @@
         <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E314">
         <v>411</v>
@@ -4359,7 +4359,7 @@
         <v>22</v>
       </c>
       <c r="D329" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E329">
         <v>411</v>
@@ -4524,7 +4524,7 @@
         <v>37</v>
       </c>
       <c r="D344" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E344">
         <v>411</v>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -974,7 +974,7 @@
         <v>23</v>
       </c>
       <c r="E27">
-        <v>470</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2378,7 +2378,7 @@
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E150">
         <v>410</v>
@@ -2868,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>420</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="3:5">
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E311">
         <v>470</v>
@@ -4566,7 +4566,7 @@
     <row r="348" spans="3:5">
       <c r="E348">
         <f>SUM(E2:E347)</f>
-        <v>154922</v>
+        <v>154937</v>
       </c>
     </row>
   </sheetData>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="3:5">
@@ -4566,7 +4566,7 @@
     <row r="348" spans="3:5">
       <c r="E348">
         <f>SUM(E2:E347)</f>
-        <v>154937</v>
+        <v>154947</v>
       </c>
     </row>
   </sheetData>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -4566,7 +4566,7 @@
     <row r="348" spans="3:5">
       <c r="E348">
         <f>SUM(E2:E347)</f>
-        <v>154947</v>
+        <v>154957</v>
       </c>
     </row>
   </sheetData>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="F340" sqref="F340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,10 +1142,13 @@
         <v>23</v>
       </c>
       <c r="E39">
-        <v>470</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" s="1">
         <v>43481</v>
       </c>
@@ -1160,6 +1163,9 @@
       </c>
     </row>
     <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="C41" s="3">
         <v>2</v>
       </c>
@@ -1171,6 +1177,9 @@
       </c>
     </row>
     <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="C42" s="3">
         <v>3</v>
       </c>
@@ -1182,6 +1191,9 @@
       </c>
     </row>
     <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="C43" s="3">
         <v>4</v>
       </c>
@@ -1193,6 +1205,9 @@
       </c>
     </row>
     <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="C44" s="3">
         <v>5</v>
       </c>
@@ -1204,6 +1219,9 @@
       </c>
     </row>
     <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="C45" s="3">
         <v>6</v>
       </c>
@@ -1215,6 +1233,9 @@
       </c>
     </row>
     <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="C46" s="3">
         <v>7</v>
       </c>
@@ -1226,6 +1247,9 @@
       </c>
     </row>
     <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="C47" s="3">
         <v>8</v>
       </c>
@@ -1237,6 +1261,9 @@
       </c>
     </row>
     <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="C48" s="3">
         <v>9</v>
       </c>
@@ -1247,7 +1274,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="C49" s="3">
         <v>10</v>
       </c>
@@ -1258,7 +1288,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="C50" s="3">
         <v>11</v>
       </c>
@@ -1269,7 +1302,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="C51" s="3">
         <v>12</v>
       </c>
@@ -1280,7 +1316,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="C52" s="3">
         <v>13</v>
       </c>
@@ -1291,7 +1330,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="C53" s="3">
         <v>14</v>
       </c>
@@ -1302,7 +1344,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="C54" s="3">
         <v>15</v>
       </c>
@@ -1313,7 +1358,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="C55" s="3">
         <v>16</v>
       </c>
@@ -1324,7 +1372,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="C56" s="3">
         <v>17</v>
       </c>
@@ -1335,7 +1386,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="C57" s="3">
         <v>18</v>
       </c>
@@ -1346,7 +1400,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="C58" s="3">
         <v>19</v>
       </c>
@@ -1357,7 +1414,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="C59" s="3">
         <v>20</v>
       </c>
@@ -1368,7 +1428,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="C60" s="3">
         <v>21</v>
       </c>
@@ -1379,7 +1442,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="C61" s="3">
         <v>22</v>
       </c>
@@ -1390,7 +1456,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="C62" s="3">
         <v>23</v>
       </c>
@@ -1401,7 +1470,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="C63" s="3">
         <v>24</v>
       </c>
@@ -1412,7 +1484,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" s="1">
         <v>43485</v>
       </c>
@@ -1426,7 +1501,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="C65" s="3">
         <v>2</v>
       </c>
@@ -1437,7 +1515,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="C66" s="3">
         <v>3</v>
       </c>
@@ -1448,7 +1529,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="C67" s="3">
         <v>4</v>
       </c>
@@ -1459,7 +1543,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="C68" s="3">
         <v>5</v>
       </c>
@@ -1470,7 +1557,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="C69" s="3">
         <v>6</v>
       </c>
@@ -1481,7 +1571,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="C70" s="3">
         <v>7</v>
       </c>
@@ -1492,7 +1585,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="C71" s="3">
         <v>8</v>
       </c>
@@ -1503,7 +1599,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" s="1">
         <v>43486</v>
       </c>
@@ -1517,7 +1616,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="C73" s="3">
         <v>2</v>
       </c>
@@ -1528,7 +1630,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="C74" s="3">
         <v>3</v>
       </c>
@@ -1539,7 +1644,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="C75" s="3">
         <v>4</v>
       </c>
@@ -1550,7 +1658,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="C76" s="3">
         <v>5</v>
       </c>
@@ -1561,7 +1672,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="C77" s="3">
         <v>6</v>
       </c>
@@ -1572,7 +1686,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="C78" s="3">
         <v>7</v>
       </c>
@@ -1583,7 +1700,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="C79" s="3">
         <v>8</v>
       </c>
@@ -1594,7 +1714,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="C80" s="3">
         <v>9</v>
       </c>
@@ -1605,7 +1728,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="C81" s="3">
         <v>10</v>
       </c>
@@ -1616,7 +1742,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="C82" s="3">
         <v>11</v>
       </c>
@@ -1627,7 +1756,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="C83" s="3">
         <v>12</v>
       </c>
@@ -1638,7 +1770,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="C84" s="3">
         <v>13</v>
       </c>
@@ -1649,7 +1784,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="C85" s="3">
         <v>14</v>
       </c>
@@ -1660,7 +1798,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="C86" s="3">
         <v>15</v>
       </c>
@@ -1671,7 +1812,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="C87" s="3">
         <v>16</v>
       </c>
@@ -1682,7 +1826,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="C88" s="3">
         <v>17</v>
       </c>
@@ -1693,7 +1840,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" s="1">
         <v>43489</v>
       </c>
@@ -1707,7 +1857,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="C90" s="3">
         <v>2</v>
       </c>
@@ -1718,7 +1871,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="C91" s="3">
         <v>3</v>
       </c>
@@ -1729,7 +1885,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="C92" s="3">
         <v>4</v>
       </c>
@@ -1740,7 +1899,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="C93" s="3">
         <v>5</v>
       </c>
@@ -1751,7 +1913,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="C94" s="3">
         <v>6</v>
       </c>
@@ -1762,7 +1927,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="C95" s="3">
         <v>7</v>
       </c>
@@ -1773,7 +1941,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="C96" s="3">
         <v>8</v>
       </c>
@@ -1784,7 +1955,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="C97" s="3">
         <v>9</v>
       </c>
@@ -1795,7 +1969,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="C98" s="3">
         <v>10</v>
       </c>
@@ -1806,7 +1983,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="C99" s="3">
         <v>11</v>
       </c>
@@ -1817,7 +1997,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="C100" s="3">
         <v>12</v>
       </c>
@@ -1828,7 +2011,10 @@
         <v>498</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="C101" s="3">
         <v>13</v>
       </c>
@@ -1839,7 +2025,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="C102" s="3">
         <v>14</v>
       </c>
@@ -1850,7 +2039,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="C103" s="3">
         <v>15</v>
       </c>
@@ -1861,7 +2053,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="C104" s="3">
         <v>16</v>
       </c>
@@ -1872,7 +2067,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="C105" s="3">
         <v>17</v>
       </c>
@@ -1883,7 +2081,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="C106" s="3">
         <v>18</v>
       </c>
@@ -1894,7 +2095,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="C107" s="3">
         <v>19</v>
       </c>
@@ -1905,7 +2109,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="C108" s="3">
         <v>20</v>
       </c>
@@ -1916,7 +2123,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" s="1">
         <v>43490</v>
       </c>
@@ -1930,7 +2140,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="C110" s="3">
         <v>2</v>
       </c>
@@ -1941,7 +2154,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="C111" s="3">
         <v>3</v>
       </c>
@@ -1952,7 +2168,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="C112" s="3">
         <v>4</v>
       </c>
@@ -1963,7 +2182,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="C113" s="3">
         <v>5</v>
       </c>
@@ -1974,7 +2196,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="C114" s="3">
         <v>6</v>
       </c>
@@ -1985,7 +2210,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="C115" s="3">
         <v>7</v>
       </c>
@@ -1996,7 +2224,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="C116" s="3">
         <v>8</v>
       </c>
@@ -2007,7 +2238,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="C117" s="3">
         <v>9</v>
       </c>
@@ -2018,7 +2252,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="C118" s="3">
         <v>10</v>
       </c>
@@ -2029,7 +2266,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>118</v>
+      </c>
       <c r="C119" s="3">
         <v>11</v>
       </c>
@@ -2040,7 +2280,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="C120" s="3">
         <v>12</v>
       </c>
@@ -2051,7 +2294,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="C121" s="3">
         <v>13</v>
       </c>
@@ -2062,7 +2308,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>121</v>
+      </c>
       <c r="C122" s="3">
         <v>14</v>
       </c>
@@ -2073,7 +2322,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="C123" s="3">
         <v>15</v>
       </c>
@@ -2084,7 +2336,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>123</v>
+      </c>
       <c r="C124" s="3">
         <v>16</v>
       </c>
@@ -2095,7 +2350,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>124</v>
+      </c>
       <c r="C125" s="3">
         <v>17</v>
       </c>
@@ -2106,7 +2364,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="C126" s="3">
         <v>18</v>
       </c>
@@ -2117,7 +2378,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>126</v>
+      </c>
       <c r="C127" s="3">
         <v>19</v>
       </c>
@@ -2128,7 +2392,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>127</v>
+      </c>
       <c r="C128" s="3">
         <v>20</v>
       </c>
@@ -2139,7 +2406,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>128</v>
+      </c>
       <c r="C129" s="3">
         <v>21</v>
       </c>
@@ -2150,7 +2420,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>129</v>
+      </c>
       <c r="C130" s="3">
         <v>22</v>
       </c>
@@ -2161,7 +2434,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>130</v>
+      </c>
       <c r="C131" s="3">
         <v>23</v>
       </c>
@@ -2172,7 +2448,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>131</v>
+      </c>
       <c r="C132" s="3">
         <v>24</v>
       </c>
@@ -2183,7 +2462,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>132</v>
+      </c>
       <c r="C133" s="3">
         <v>25</v>
       </c>
@@ -2194,7 +2476,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="2:5">
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>133</v>
+      </c>
       <c r="C134" s="3">
         <v>26</v>
       </c>
@@ -2205,7 +2490,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>134</v>
+      </c>
       <c r="B135" s="1">
         <v>43491</v>
       </c>
@@ -2219,7 +2507,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>135</v>
+      </c>
       <c r="C136" s="3">
         <v>2</v>
       </c>
@@ -2230,7 +2521,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>136</v>
+      </c>
       <c r="C137" s="3">
         <v>3</v>
       </c>
@@ -2241,7 +2535,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>137</v>
+      </c>
       <c r="C138" s="3">
         <v>4</v>
       </c>
@@ -2252,7 +2549,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>138</v>
+      </c>
       <c r="C139" s="3">
         <v>5</v>
       </c>
@@ -2263,7 +2563,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>139</v>
+      </c>
       <c r="C140" s="3">
         <v>6</v>
       </c>
@@ -2274,7 +2577,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="141" spans="2:5">
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>140</v>
+      </c>
       <c r="C141" s="3">
         <v>7</v>
       </c>
@@ -2285,7 +2591,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>141</v>
+      </c>
       <c r="C142" s="3">
         <v>8</v>
       </c>
@@ -2296,7 +2605,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="143" spans="2:5">
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>142</v>
+      </c>
       <c r="C143" s="3">
         <v>9</v>
       </c>
@@ -2307,7 +2619,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>143</v>
+      </c>
       <c r="C144" s="3">
         <v>10</v>
       </c>
@@ -2318,7 +2633,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>144</v>
+      </c>
       <c r="C145" s="3">
         <v>11</v>
       </c>
@@ -2329,7 +2647,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>145</v>
+      </c>
       <c r="C146" s="3">
         <v>12</v>
       </c>
@@ -2340,7 +2661,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="147" spans="3:5">
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>146</v>
+      </c>
       <c r="C147" s="3">
         <v>13</v>
       </c>
@@ -2351,7 +2675,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="148" spans="3:5">
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>147</v>
+      </c>
       <c r="C148" s="3">
         <v>14</v>
       </c>
@@ -2362,7 +2689,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>148</v>
+      </c>
       <c r="C149" s="3">
         <v>15</v>
       </c>
@@ -2373,7 +2703,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="150" spans="3:5">
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>149</v>
+      </c>
       <c r="C150" s="3">
         <v>16</v>
       </c>
@@ -2384,7 +2717,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="151" spans="3:5">
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>150</v>
+      </c>
       <c r="C151" s="3">
         <v>17</v>
       </c>
@@ -2395,7 +2731,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="152" spans="3:5">
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>151</v>
+      </c>
       <c r="C152" s="3">
         <v>18</v>
       </c>
@@ -2406,7 +2745,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="153" spans="3:5">
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>152</v>
+      </c>
       <c r="C153" s="3">
         <v>19</v>
       </c>
@@ -2417,7 +2759,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="3:5">
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>153</v>
+      </c>
       <c r="C154" s="3">
         <v>20</v>
       </c>
@@ -2428,7 +2773,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="155" spans="3:5">
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>154</v>
+      </c>
       <c r="C155" s="3">
         <v>21</v>
       </c>
@@ -2439,7 +2787,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="3:5">
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>155</v>
+      </c>
       <c r="C156" s="3">
         <v>22</v>
       </c>
@@ -2450,7 +2801,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="157" spans="3:5">
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>156</v>
+      </c>
       <c r="C157" s="3">
         <v>23</v>
       </c>
@@ -2461,7 +2815,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="3:5">
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>157</v>
+      </c>
       <c r="C158" s="3">
         <v>24</v>
       </c>
@@ -2472,7 +2829,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="3:5">
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>158</v>
+      </c>
       <c r="C159" s="3">
         <v>25</v>
       </c>
@@ -2483,7 +2843,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="160" spans="3:5">
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>159</v>
+      </c>
       <c r="C160" s="3">
         <v>26</v>
       </c>
@@ -2494,7 +2857,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="161" spans="3:5">
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>160</v>
+      </c>
       <c r="C161" s="3">
         <v>27</v>
       </c>
@@ -2505,7 +2871,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="162" spans="3:5">
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>161</v>
+      </c>
       <c r="C162" s="3">
         <v>28</v>
       </c>
@@ -2516,7 +2885,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="163" spans="3:5">
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>162</v>
+      </c>
       <c r="C163" s="3">
         <v>29</v>
       </c>
@@ -2527,7 +2899,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="3:5">
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>163</v>
+      </c>
       <c r="C164" s="3">
         <v>30</v>
       </c>
@@ -2538,7 +2913,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="3:5">
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>164</v>
+      </c>
       <c r="C165" s="3">
         <v>31</v>
       </c>
@@ -2549,7 +2927,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="166" spans="3:5">
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>165</v>
+      </c>
       <c r="C166" s="3">
         <v>32</v>
       </c>
@@ -2560,7 +2941,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="167" spans="3:5">
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>166</v>
+      </c>
       <c r="C167" s="3">
         <v>33</v>
       </c>
@@ -2571,7 +2955,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="168" spans="3:5">
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>167</v>
+      </c>
       <c r="C168" s="3">
         <v>34</v>
       </c>
@@ -2582,7 +2969,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="3:5">
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>168</v>
+      </c>
       <c r="C169" s="3">
         <v>35</v>
       </c>
@@ -2593,7 +2983,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="170" spans="3:5">
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>169</v>
+      </c>
       <c r="C170" s="3">
         <v>36</v>
       </c>
@@ -2604,7 +2997,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="3:5">
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>170</v>
+      </c>
       <c r="C171" s="3">
         <v>37</v>
       </c>
@@ -2615,7 +3011,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="172" spans="3:5">
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>171</v>
+      </c>
       <c r="C172" s="3">
         <v>38</v>
       </c>
@@ -2626,7 +3025,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="3:5">
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>172</v>
+      </c>
       <c r="C173" s="3">
         <v>39</v>
       </c>
@@ -2637,7 +3039,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="174" spans="3:5">
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>173</v>
+      </c>
       <c r="C174" s="3">
         <v>40</v>
       </c>
@@ -2648,7 +3053,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="3:5">
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>174</v>
+      </c>
       <c r="C175" s="3">
         <v>41</v>
       </c>
@@ -2659,7 +3067,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="176" spans="3:5">
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>175</v>
+      </c>
       <c r="C176" s="3">
         <v>42</v>
       </c>
@@ -2670,7 +3081,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="177" spans="2:5">
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>176</v>
+      </c>
       <c r="C177" s="3">
         <v>43</v>
       </c>
@@ -2681,7 +3095,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="178" spans="2:5">
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>177</v>
+      </c>
       <c r="C178" s="3">
         <v>44</v>
       </c>
@@ -2692,7 +3109,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="179" spans="2:5">
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>178</v>
+      </c>
       <c r="C179" s="3">
         <v>45</v>
       </c>
@@ -2703,7 +3123,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="180" spans="2:5">
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>179</v>
+      </c>
       <c r="B180" s="1">
         <v>43492</v>
       </c>
@@ -2717,7 +3140,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>180</v>
+      </c>
       <c r="C181" s="3">
         <v>2</v>
       </c>
@@ -2728,7 +3154,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>181</v>
+      </c>
       <c r="C182" s="3">
         <v>3</v>
       </c>
@@ -2739,7 +3168,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="183" spans="2:5">
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>182</v>
+      </c>
       <c r="C183" s="3">
         <v>4</v>
       </c>
@@ -2750,7 +3182,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>183</v>
+      </c>
       <c r="C184" s="3">
         <v>5</v>
       </c>
@@ -2761,7 +3196,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>184</v>
+      </c>
       <c r="C185" s="3">
         <v>6</v>
       </c>
@@ -2772,7 +3210,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="186" spans="2:5">
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>185</v>
+      </c>
       <c r="C186" s="3">
         <v>7</v>
       </c>
@@ -2783,7 +3224,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="187" spans="2:5">
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>186</v>
+      </c>
       <c r="C187" s="3">
         <v>8</v>
       </c>
@@ -2794,7 +3238,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="2:5">
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>187</v>
+      </c>
       <c r="C188" s="3">
         <v>9</v>
       </c>
@@ -2805,7 +3252,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="189" spans="2:5">
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>188</v>
+      </c>
       <c r="C189" s="3">
         <v>10</v>
       </c>
@@ -2816,7 +3266,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>189</v>
+      </c>
       <c r="C190" s="3">
         <v>11</v>
       </c>
@@ -2827,7 +3280,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>190</v>
+      </c>
       <c r="C191" s="3">
         <v>12</v>
       </c>
@@ -2838,7 +3294,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>191</v>
+      </c>
       <c r="C192" s="3">
         <v>13</v>
       </c>
@@ -2849,7 +3308,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="3:5">
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>192</v>
+      </c>
       <c r="C193" s="3">
         <v>14</v>
       </c>
@@ -2860,7 +3322,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="3:5">
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>193</v>
+      </c>
       <c r="C194" s="3">
         <v>15</v>
       </c>
@@ -2871,7 +3336,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="3:5">
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>194</v>
+      </c>
       <c r="C195" s="3">
         <v>16</v>
       </c>
@@ -2882,7 +3350,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="3:5">
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>195</v>
+      </c>
       <c r="C196" s="3">
         <v>17</v>
       </c>
@@ -2893,7 +3364,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="197" spans="3:5">
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>196</v>
+      </c>
       <c r="C197" s="3">
         <v>18</v>
       </c>
@@ -2904,7 +3378,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="198" spans="3:5">
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>197</v>
+      </c>
       <c r="C198" s="3">
         <v>19</v>
       </c>
@@ -2915,7 +3392,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="3:5">
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>198</v>
+      </c>
       <c r="C199" s="3">
         <v>20</v>
       </c>
@@ -2926,7 +3406,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="200" spans="3:5">
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>199</v>
+      </c>
       <c r="C200" s="3">
         <v>21</v>
       </c>
@@ -2937,7 +3420,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="201" spans="3:5">
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>200</v>
+      </c>
       <c r="C201" s="3">
         <v>22</v>
       </c>
@@ -2948,7 +3434,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="202" spans="3:5">
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>201</v>
+      </c>
       <c r="C202" s="3">
         <v>23</v>
       </c>
@@ -2959,7 +3448,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="203" spans="3:5">
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>202</v>
+      </c>
       <c r="C203" s="3">
         <v>24</v>
       </c>
@@ -2970,7 +3462,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="204" spans="3:5">
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>203</v>
+      </c>
       <c r="C204" s="3">
         <v>25</v>
       </c>
@@ -2981,7 +3476,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="205" spans="3:5">
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>204</v>
+      </c>
       <c r="C205" s="3">
         <v>26</v>
       </c>
@@ -2992,7 +3490,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="206" spans="3:5">
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>205</v>
+      </c>
       <c r="C206" s="3">
         <v>27</v>
       </c>
@@ -3003,7 +3504,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="3:5">
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>206</v>
+      </c>
       <c r="C207" s="3">
         <v>28</v>
       </c>
@@ -3014,7 +3518,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="208" spans="3:5">
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>207</v>
+      </c>
       <c r="C208" s="3">
         <v>29</v>
       </c>
@@ -3025,7 +3532,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="2:5">
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>208</v>
+      </c>
       <c r="C209" s="3">
         <v>30</v>
       </c>
@@ -3036,7 +3546,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="210" spans="2:5">
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>209</v>
+      </c>
       <c r="C210" s="3">
         <v>31</v>
       </c>
@@ -3047,7 +3560,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="2:5">
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>210</v>
+      </c>
       <c r="C211" s="3">
         <v>32</v>
       </c>
@@ -3058,7 +3574,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="212" spans="2:5">
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>211</v>
+      </c>
       <c r="C212" s="3">
         <v>33</v>
       </c>
@@ -3069,7 +3588,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="213" spans="2:5">
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>212</v>
+      </c>
       <c r="C213" s="3">
         <v>34</v>
       </c>
@@ -3080,7 +3602,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="214" spans="2:5">
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>213</v>
+      </c>
       <c r="C214" s="3">
         <v>35</v>
       </c>
@@ -3091,7 +3616,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="215" spans="2:5">
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>214</v>
+      </c>
       <c r="C215" s="3">
         <v>36</v>
       </c>
@@ -3102,7 +3630,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="216" spans="2:5">
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>215</v>
+      </c>
       <c r="C216" s="3">
         <v>37</v>
       </c>
@@ -3113,7 +3644,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="217" spans="2:5">
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>216</v>
+      </c>
       <c r="C217" s="3">
         <v>38</v>
       </c>
@@ -3124,7 +3658,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="218" spans="2:5">
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>217</v>
+      </c>
       <c r="B218" s="1">
         <v>43493</v>
       </c>
@@ -3138,7 +3675,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="219" spans="2:5">
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>218</v>
+      </c>
       <c r="C219" s="3">
         <v>2</v>
       </c>
@@ -3149,7 +3689,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="220" spans="2:5">
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>219</v>
+      </c>
       <c r="C220" s="3">
         <v>3</v>
       </c>
@@ -3160,7 +3703,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="2:5">
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>220</v>
+      </c>
       <c r="C221" s="3">
         <v>4</v>
       </c>
@@ -3171,7 +3717,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="222" spans="2:5">
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>221</v>
+      </c>
       <c r="C222" s="3">
         <v>5</v>
       </c>
@@ -3182,7 +3731,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="2:5">
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>222</v>
+      </c>
       <c r="C223" s="3">
         <v>6</v>
       </c>
@@ -3193,7 +3745,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="224" spans="2:5">
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>223</v>
+      </c>
       <c r="C224" s="3">
         <v>7</v>
       </c>
@@ -3204,7 +3759,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="225" spans="3:5">
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>224</v>
+      </c>
       <c r="C225" s="3">
         <v>8</v>
       </c>
@@ -3215,7 +3773,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="226" spans="3:5">
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>225</v>
+      </c>
       <c r="C226" s="3">
         <v>9</v>
       </c>
@@ -3226,7 +3787,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="227" spans="3:5">
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>226</v>
+      </c>
       <c r="C227" s="3">
         <v>10</v>
       </c>
@@ -3237,7 +3801,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="228" spans="3:5">
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>227</v>
+      </c>
       <c r="C228" s="3">
         <v>11</v>
       </c>
@@ -3248,7 +3815,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="229" spans="3:5">
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>228</v>
+      </c>
       <c r="C229" s="3">
         <v>12</v>
       </c>
@@ -3259,7 +3829,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="230" spans="3:5">
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>229</v>
+      </c>
       <c r="C230" s="3">
         <v>13</v>
       </c>
@@ -3270,7 +3843,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="231" spans="3:5">
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>230</v>
+      </c>
       <c r="C231" s="3">
         <v>14</v>
       </c>
@@ -3281,7 +3857,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="232" spans="3:5">
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>231</v>
+      </c>
       <c r="C232" s="3">
         <v>15</v>
       </c>
@@ -3292,7 +3871,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="233" spans="3:5">
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>232</v>
+      </c>
       <c r="C233" s="3">
         <v>16</v>
       </c>
@@ -3303,7 +3885,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="234" spans="3:5">
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>233</v>
+      </c>
       <c r="C234" s="3">
         <v>17</v>
       </c>
@@ -3314,7 +3899,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="235" spans="3:5">
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>234</v>
+      </c>
       <c r="C235" s="3">
         <v>18</v>
       </c>
@@ -3325,7 +3913,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="236" spans="3:5">
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>235</v>
+      </c>
       <c r="C236" s="3">
         <v>19</v>
       </c>
@@ -3336,7 +3927,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="237" spans="3:5">
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>236</v>
+      </c>
       <c r="C237" s="3">
         <v>20</v>
       </c>
@@ -3347,7 +3941,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="238" spans="3:5">
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>237</v>
+      </c>
       <c r="C238" s="3">
         <v>21</v>
       </c>
@@ -3358,7 +3955,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="239" spans="3:5">
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>238</v>
+      </c>
       <c r="C239" s="3">
         <v>22</v>
       </c>
@@ -3369,7 +3969,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="240" spans="3:5">
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>239</v>
+      </c>
       <c r="C240" s="3">
         <v>23</v>
       </c>
@@ -3380,7 +3983,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="241" spans="3:5">
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>240</v>
+      </c>
       <c r="C241" s="3">
         <v>24</v>
       </c>
@@ -3391,7 +3997,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="242" spans="3:5">
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>241</v>
+      </c>
       <c r="C242" s="3">
         <v>25</v>
       </c>
@@ -3402,7 +4011,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="243" spans="3:5">
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>242</v>
+      </c>
       <c r="C243" s="3">
         <v>26</v>
       </c>
@@ -3413,7 +4025,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="244" spans="3:5">
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>243</v>
+      </c>
       <c r="C244" s="3">
         <v>27</v>
       </c>
@@ -3424,7 +4039,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="245" spans="3:5">
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>244</v>
+      </c>
       <c r="C245" s="3">
         <v>28</v>
       </c>
@@ -3435,7 +4053,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="246" spans="3:5">
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>245</v>
+      </c>
       <c r="C246" s="3">
         <v>29</v>
       </c>
@@ -3446,7 +4067,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="247" spans="3:5">
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>246</v>
+      </c>
       <c r="C247" s="3">
         <v>30</v>
       </c>
@@ -3457,7 +4081,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="3:5">
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>247</v>
+      </c>
       <c r="C248" s="3">
         <v>31</v>
       </c>
@@ -3468,7 +4095,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="249" spans="3:5">
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>248</v>
+      </c>
       <c r="C249" s="3">
         <v>32</v>
       </c>
@@ -3479,7 +4109,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="250" spans="3:5">
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>249</v>
+      </c>
       <c r="C250" s="3">
         <v>33</v>
       </c>
@@ -3490,7 +4123,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="251" spans="3:5">
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>250</v>
+      </c>
       <c r="C251" s="3">
         <v>34</v>
       </c>
@@ -3501,7 +4137,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="252" spans="3:5">
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>251</v>
+      </c>
       <c r="C252" s="3">
         <v>35</v>
       </c>
@@ -3512,7 +4151,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="253" spans="3:5">
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>252</v>
+      </c>
       <c r="C253" s="3">
         <v>36</v>
       </c>
@@ -3523,7 +4165,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="254" spans="3:5">
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>253</v>
+      </c>
       <c r="C254" s="3">
         <v>37</v>
       </c>
@@ -3534,7 +4179,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="255" spans="3:5">
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>254</v>
+      </c>
       <c r="C255" s="3">
         <v>38</v>
       </c>
@@ -3545,7 +4193,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="256" spans="3:5">
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>255</v>
+      </c>
       <c r="C256" s="3">
         <v>39</v>
       </c>
@@ -3556,7 +4207,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="257" spans="2:5">
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>256</v>
+      </c>
       <c r="C257" s="3">
         <v>40</v>
       </c>
@@ -3567,7 +4221,10 @@
         <v>488</v>
       </c>
     </row>
-    <row r="258" spans="2:5">
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>257</v>
+      </c>
       <c r="C258" s="3">
         <v>41</v>
       </c>
@@ -3578,7 +4235,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="259" spans="2:5">
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>258</v>
+      </c>
       <c r="C259" s="3">
         <v>42</v>
       </c>
@@ -3589,7 +4249,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="260" spans="2:5">
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>259</v>
+      </c>
       <c r="C260" s="3">
         <v>43</v>
       </c>
@@ -3600,7 +4263,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="261" spans="2:5">
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>260</v>
+      </c>
       <c r="C261" s="3">
         <v>44</v>
       </c>
@@ -3611,7 +4277,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>261</v>
+      </c>
       <c r="C262" s="3">
         <v>45</v>
       </c>
@@ -3622,7 +4291,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="263" spans="2:5">
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>262</v>
+      </c>
       <c r="C263" s="3">
         <v>46</v>
       </c>
@@ -3633,7 +4305,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="264" spans="2:5">
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>263</v>
+      </c>
       <c r="B264" s="1">
         <v>43494</v>
       </c>
@@ -3647,7 +4322,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="265" spans="2:5">
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>264</v>
+      </c>
       <c r="C265" s="3">
         <v>2</v>
       </c>
@@ -3658,7 +4336,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="266" spans="2:5">
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>265</v>
+      </c>
       <c r="C266" s="3">
         <v>3</v>
       </c>
@@ -3669,7 +4350,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="267" spans="2:5">
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>266</v>
+      </c>
       <c r="C267" s="3">
         <v>4</v>
       </c>
@@ -3680,7 +4364,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="268" spans="2:5">
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>267</v>
+      </c>
       <c r="C268" s="3">
         <v>5</v>
       </c>
@@ -3691,7 +4378,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="269" spans="2:5">
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>268</v>
+      </c>
       <c r="C269" s="3">
         <v>6</v>
       </c>
@@ -3702,7 +4392,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="270" spans="2:5">
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>269</v>
+      </c>
       <c r="C270" s="3">
         <v>7</v>
       </c>
@@ -3713,7 +4406,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="271" spans="2:5">
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>270</v>
+      </c>
       <c r="C271" s="3">
         <v>8</v>
       </c>
@@ -3724,7 +4420,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="272" spans="2:5">
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>271</v>
+      </c>
       <c r="C272" s="3">
         <v>9</v>
       </c>
@@ -3735,7 +4434,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="273" spans="3:5">
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>272</v>
+      </c>
       <c r="C273" s="3">
         <v>10</v>
       </c>
@@ -3746,18 +4448,24 @@
         <v>419</v>
       </c>
     </row>
-    <row r="274" spans="3:5">
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>273</v>
+      </c>
       <c r="C274" s="3">
         <v>11</v>
       </c>
       <c r="D274" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E274">
         <v>435</v>
       </c>
     </row>
-    <row r="275" spans="3:5">
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>274</v>
+      </c>
       <c r="C275" s="3">
         <v>12</v>
       </c>
@@ -3768,7 +4476,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="276" spans="3:5">
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>275</v>
+      </c>
       <c r="C276" s="3">
         <v>13</v>
       </c>
@@ -3779,7 +4490,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="277" spans="3:5">
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>276</v>
+      </c>
       <c r="C277" s="3">
         <v>14</v>
       </c>
@@ -3790,7 +4504,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="278" spans="3:5">
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>277</v>
+      </c>
       <c r="C278" s="3">
         <v>15</v>
       </c>
@@ -3801,7 +4518,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="279" spans="3:5">
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>278</v>
+      </c>
       <c r="C279" s="3">
         <v>16</v>
       </c>
@@ -3812,7 +4532,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="280" spans="3:5">
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>279</v>
+      </c>
       <c r="C280" s="3">
         <v>17</v>
       </c>
@@ -3823,7 +4546,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="281" spans="3:5">
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>280</v>
+      </c>
       <c r="C281" s="3">
         <v>18</v>
       </c>
@@ -3834,7 +4560,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="282" spans="3:5">
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>281</v>
+      </c>
       <c r="C282" s="3">
         <v>19</v>
       </c>
@@ -3845,7 +4574,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="283" spans="3:5">
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>282</v>
+      </c>
       <c r="C283" s="3">
         <v>20</v>
       </c>
@@ -3856,7 +4588,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="284" spans="3:5">
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>283</v>
+      </c>
       <c r="C284" s="3">
         <v>21</v>
       </c>
@@ -3867,7 +4602,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="285" spans="3:5">
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>284</v>
+      </c>
       <c r="C285" s="3">
         <v>22</v>
       </c>
@@ -3878,7 +4616,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="286" spans="3:5">
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>285</v>
+      </c>
       <c r="C286" s="3">
         <v>23</v>
       </c>
@@ -3889,7 +4630,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="287" spans="3:5">
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>286</v>
+      </c>
       <c r="C287" s="3">
         <v>24</v>
       </c>
@@ -3900,7 +4644,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="288" spans="3:5">
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>287</v>
+      </c>
       <c r="C288" s="3">
         <v>25</v>
       </c>
@@ -3911,7 +4658,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="289" spans="3:5">
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>288</v>
+      </c>
       <c r="C289" s="3">
         <v>26</v>
       </c>
@@ -3922,7 +4672,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="290" spans="3:5">
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>289</v>
+      </c>
       <c r="C290" s="3">
         <v>27</v>
       </c>
@@ -3933,7 +4686,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="291" spans="3:5">
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>290</v>
+      </c>
       <c r="C291" s="3">
         <v>28</v>
       </c>
@@ -3944,7 +4700,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="292" spans="3:5">
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>291</v>
+      </c>
       <c r="C292" s="3">
         <v>29</v>
       </c>
@@ -3955,7 +4714,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="293" spans="3:5">
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>292</v>
+      </c>
       <c r="C293" s="3">
         <v>30</v>
       </c>
@@ -3966,7 +4728,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="294" spans="3:5">
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>293</v>
+      </c>
       <c r="C294" s="3">
         <v>31</v>
       </c>
@@ -3977,7 +4742,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="295" spans="3:5">
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>294</v>
+      </c>
       <c r="C295" s="3">
         <v>32</v>
       </c>
@@ -3988,7 +4756,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="296" spans="3:5">
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>295</v>
+      </c>
       <c r="C296" s="3">
         <v>33</v>
       </c>
@@ -3999,7 +4770,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="297" spans="3:5">
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>296</v>
+      </c>
       <c r="C297" s="3">
         <v>34</v>
       </c>
@@ -4010,7 +4784,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="298" spans="3:5">
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>297</v>
+      </c>
       <c r="C298" s="3">
         <v>35</v>
       </c>
@@ -4021,7 +4798,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="299" spans="3:5">
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>298</v>
+      </c>
       <c r="C299" s="3">
         <v>36</v>
       </c>
@@ -4032,7 +4812,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="300" spans="3:5">
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>299</v>
+      </c>
       <c r="C300" s="3">
         <v>37</v>
       </c>
@@ -4043,7 +4826,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="301" spans="3:5">
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>300</v>
+      </c>
       <c r="C301" s="3">
         <v>38</v>
       </c>
@@ -4054,7 +4840,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="302" spans="3:5">
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>301</v>
+      </c>
       <c r="C302" s="3">
         <v>39</v>
       </c>
@@ -4065,7 +4854,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="303" spans="3:5">
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>302</v>
+      </c>
       <c r="C303" s="3">
         <v>40</v>
       </c>
@@ -4076,7 +4868,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="304" spans="3:5">
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>303</v>
+      </c>
       <c r="C304" s="3">
         <v>41</v>
       </c>
@@ -4087,7 +4882,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="2:5">
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>304</v>
+      </c>
       <c r="C305" s="3">
         <v>42</v>
       </c>
@@ -4098,7 +4896,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="306" spans="2:5">
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>305</v>
+      </c>
       <c r="C306" s="3">
         <v>43</v>
       </c>
@@ -4109,7 +4910,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="307" spans="2:5">
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>306</v>
+      </c>
       <c r="C307" s="3">
         <v>44</v>
       </c>
@@ -4120,7 +4924,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="308" spans="2:5">
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>307</v>
+      </c>
       <c r="B308" s="1">
         <v>43495</v>
       </c>
@@ -4134,7 +4941,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="309" spans="2:5">
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>308</v>
+      </c>
       <c r="C309" s="3">
         <v>2</v>
       </c>
@@ -4145,7 +4955,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="310" spans="2:5">
+    <row r="310" spans="1:5">
+      <c r="A310">
+        <v>309</v>
+      </c>
       <c r="C310" s="3">
         <v>3</v>
       </c>
@@ -4156,7 +4969,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="311" spans="2:5">
+    <row r="311" spans="1:5">
+      <c r="A311">
+        <v>310</v>
+      </c>
       <c r="C311" s="3">
         <v>4</v>
       </c>
@@ -4167,7 +4983,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="2:5">
+    <row r="312" spans="1:5">
+      <c r="A312">
+        <v>311</v>
+      </c>
       <c r="C312" s="3">
         <v>5</v>
       </c>
@@ -4178,7 +4997,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="313" spans="2:5">
+    <row r="313" spans="1:5">
+      <c r="A313">
+        <v>312</v>
+      </c>
       <c r="C313" s="3">
         <v>6</v>
       </c>
@@ -4189,7 +5011,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="314" spans="2:5">
+    <row r="314" spans="1:5">
+      <c r="A314">
+        <v>313</v>
+      </c>
       <c r="C314" s="3">
         <v>7</v>
       </c>
@@ -4200,7 +5025,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="315" spans="2:5">
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <v>314</v>
+      </c>
       <c r="C315" s="3">
         <v>8</v>
       </c>
@@ -4211,7 +5039,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="316" spans="2:5">
+    <row r="316" spans="1:5">
+      <c r="A316">
+        <v>315</v>
+      </c>
       <c r="C316" s="3">
         <v>9</v>
       </c>
@@ -4222,7 +5053,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="317" spans="2:5">
+    <row r="317" spans="1:5">
+      <c r="A317">
+        <v>316</v>
+      </c>
       <c r="C317" s="3">
         <v>10</v>
       </c>
@@ -4233,7 +5067,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="318" spans="2:5">
+    <row r="318" spans="1:5">
+      <c r="A318">
+        <v>317</v>
+      </c>
       <c r="C318" s="3">
         <v>11</v>
       </c>
@@ -4244,7 +5081,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="319" spans="2:5">
+    <row r="319" spans="1:5">
+      <c r="A319">
+        <v>318</v>
+      </c>
       <c r="C319" s="3">
         <v>12</v>
       </c>
@@ -4255,7 +5095,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="320" spans="2:5">
+    <row r="320" spans="1:5">
+      <c r="A320">
+        <v>319</v>
+      </c>
       <c r="C320" s="3">
         <v>13</v>
       </c>
@@ -4266,7 +5109,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="321" spans="3:5">
+    <row r="321" spans="1:5">
+      <c r="A321">
+        <v>320</v>
+      </c>
       <c r="C321" s="3">
         <v>14</v>
       </c>
@@ -4277,7 +5123,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="3:5">
+    <row r="322" spans="1:5">
+      <c r="A322">
+        <v>321</v>
+      </c>
       <c r="C322" s="3">
         <v>15</v>
       </c>
@@ -4288,7 +5137,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="323" spans="3:5">
+    <row r="323" spans="1:5">
+      <c r="A323">
+        <v>322</v>
+      </c>
       <c r="C323" s="3">
         <v>16</v>
       </c>
@@ -4299,7 +5151,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="324" spans="3:5">
+    <row r="324" spans="1:5">
+      <c r="A324">
+        <v>323</v>
+      </c>
       <c r="C324" s="3">
         <v>17</v>
       </c>
@@ -4310,7 +5165,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="325" spans="3:5">
+    <row r="325" spans="1:5">
+      <c r="A325">
+        <v>324</v>
+      </c>
       <c r="C325" s="3">
         <v>18</v>
       </c>
@@ -4321,7 +5179,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="326" spans="3:5">
+    <row r="326" spans="1:5">
+      <c r="A326">
+        <v>325</v>
+      </c>
       <c r="C326" s="3">
         <v>19</v>
       </c>
@@ -4332,7 +5193,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="327" spans="3:5">
+    <row r="327" spans="1:5">
+      <c r="A327">
+        <v>326</v>
+      </c>
       <c r="C327" s="3">
         <v>20</v>
       </c>
@@ -4343,7 +5207,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="328" spans="3:5">
+    <row r="328" spans="1:5">
+      <c r="A328">
+        <v>327</v>
+      </c>
       <c r="C328" s="3">
         <v>21</v>
       </c>
@@ -4354,7 +5221,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="329" spans="3:5">
+    <row r="329" spans="1:5">
+      <c r="A329">
+        <v>328</v>
+      </c>
       <c r="C329" s="3">
         <v>22</v>
       </c>
@@ -4365,7 +5235,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="330" spans="3:5">
+    <row r="330" spans="1:5">
+      <c r="A330">
+        <v>329</v>
+      </c>
       <c r="C330" s="3">
         <v>23</v>
       </c>
@@ -4376,7 +5249,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="331" spans="3:5">
+    <row r="331" spans="1:5">
+      <c r="A331">
+        <v>330</v>
+      </c>
       <c r="C331" s="3">
         <v>24</v>
       </c>
@@ -4387,7 +5263,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="332" spans="3:5">
+    <row r="332" spans="1:5">
+      <c r="A332">
+        <v>331</v>
+      </c>
       <c r="C332" s="3">
         <v>25</v>
       </c>
@@ -4398,7 +5277,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="333" spans="3:5">
+    <row r="333" spans="1:5">
+      <c r="A333">
+        <v>332</v>
+      </c>
       <c r="C333" s="3">
         <v>26</v>
       </c>
@@ -4409,7 +5291,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="334" spans="3:5">
+    <row r="334" spans="1:5">
+      <c r="A334">
+        <v>333</v>
+      </c>
       <c r="C334" s="3">
         <v>27</v>
       </c>
@@ -4420,7 +5305,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="3:5">
+    <row r="335" spans="1:5">
+      <c r="A335">
+        <v>334</v>
+      </c>
       <c r="C335" s="3">
         <v>28</v>
       </c>
@@ -4431,7 +5319,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="336" spans="3:5">
+    <row r="336" spans="1:5">
+      <c r="A336">
+        <v>335</v>
+      </c>
       <c r="C336" s="3">
         <v>29</v>
       </c>
@@ -4442,7 +5333,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="337" spans="3:5">
+    <row r="337" spans="1:5">
+      <c r="A337">
+        <v>336</v>
+      </c>
       <c r="C337" s="3">
         <v>30</v>
       </c>
@@ -4453,7 +5347,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="338" spans="3:5">
+    <row r="338" spans="1:5">
+      <c r="A338">
+        <v>337</v>
+      </c>
       <c r="C338" s="3">
         <v>31</v>
       </c>
@@ -4464,7 +5361,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="339" spans="3:5">
+    <row r="339" spans="1:5">
+      <c r="A339">
+        <v>338</v>
+      </c>
       <c r="C339" s="3">
         <v>32</v>
       </c>
@@ -4475,7 +5375,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="340" spans="3:5">
+    <row r="340" spans="1:5">
+      <c r="A340">
+        <v>339</v>
+      </c>
       <c r="C340" s="3">
         <v>33</v>
       </c>
@@ -4486,7 +5389,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="341" spans="3:5">
+    <row r="341" spans="1:5">
+      <c r="A341">
+        <v>340</v>
+      </c>
       <c r="C341" s="3">
         <v>34</v>
       </c>
@@ -4497,7 +5403,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="342" spans="3:5">
+    <row r="342" spans="1:5">
+      <c r="A342">
+        <v>341</v>
+      </c>
       <c r="C342" s="3">
         <v>35</v>
       </c>
@@ -4508,7 +5417,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="343" spans="3:5">
+    <row r="343" spans="1:5">
+      <c r="A343">
+        <v>342</v>
+      </c>
       <c r="C343" s="3">
         <v>36</v>
       </c>
@@ -4519,7 +5431,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="344" spans="3:5">
+    <row r="344" spans="1:5">
+      <c r="A344">
+        <v>343</v>
+      </c>
       <c r="C344" s="3">
         <v>37</v>
       </c>
@@ -4530,7 +5445,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="345" spans="3:5">
+    <row r="345" spans="1:5">
+      <c r="A345">
+        <v>344</v>
+      </c>
       <c r="C345" s="3">
         <v>38</v>
       </c>
@@ -4541,7 +5459,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="346" spans="3:5">
+    <row r="346" spans="1:5">
+      <c r="A346">
+        <v>345</v>
+      </c>
       <c r="C346" s="3">
         <v>39</v>
       </c>
@@ -4552,7 +5473,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="347" spans="3:5">
+    <row r="347" spans="1:5">
+      <c r="A347">
+        <v>346</v>
+      </c>
       <c r="C347" s="3">
         <v>40</v>
       </c>
@@ -4563,10 +5487,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="348" spans="3:5">
+    <row r="348" spans="1:5">
       <c r="E348">
         <f>SUM(E2:E347)</f>
-        <v>154957</v>
+        <v>154922</v>
       </c>
     </row>
   </sheetData>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="F340" sqref="F340"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3263,7 +3263,7 @@
         <v>23</v>
       </c>
       <c r="E189">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5490,7 +5490,7 @@
     <row r="348" spans="1:5">
       <c r="E348">
         <f>SUM(E2:E347)</f>
-        <v>154922</v>
+        <v>154904</v>
       </c>
     </row>
   </sheetData>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>hasen</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E348"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="D401" sqref="D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5488,9 +5491,595 @@
       </c>
     </row>
     <row r="348" spans="1:5">
+      <c r="B348" s="1">
+        <v>43496</v>
+      </c>
+      <c r="C348" s="3">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>22</v>
+      </c>
       <c r="E348">
-        <f>SUM(E2:E347)</f>
-        <v>154904</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="C349" s="3">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>3</v>
+      </c>
+      <c r="E349">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="C350" s="3">
+        <v>3</v>
+      </c>
+      <c r="D350" t="s">
+        <v>9</v>
+      </c>
+      <c r="E350">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="C351" s="3">
+        <v>4</v>
+      </c>
+      <c r="D351" t="s">
+        <v>37</v>
+      </c>
+      <c r="E351">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="C352" s="3">
+        <v>5</v>
+      </c>
+      <c r="D352" t="s">
+        <v>14</v>
+      </c>
+      <c r="E352">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="353" spans="3:5">
+      <c r="C353" s="3">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>31</v>
+      </c>
+      <c r="E353">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="354" spans="3:5">
+      <c r="C354" s="3">
+        <v>7</v>
+      </c>
+      <c r="D354" t="s">
+        <v>18</v>
+      </c>
+      <c r="E354">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="355" spans="3:5">
+      <c r="C355" s="3">
+        <v>8</v>
+      </c>
+      <c r="D355" t="s">
+        <v>17</v>
+      </c>
+      <c r="E355">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="356" spans="3:5">
+      <c r="C356" s="3">
+        <v>9</v>
+      </c>
+      <c r="D356" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="357" spans="3:5">
+      <c r="C357" s="3">
+        <v>10</v>
+      </c>
+      <c r="D357" t="s">
+        <v>8</v>
+      </c>
+      <c r="E357">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="358" spans="3:5">
+      <c r="C358" s="3">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>16</v>
+      </c>
+      <c r="E358">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="359" spans="3:5">
+      <c r="C359" s="3">
+        <v>12</v>
+      </c>
+      <c r="D359" t="s">
+        <v>35</v>
+      </c>
+      <c r="E359">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="360" spans="3:5">
+      <c r="C360" s="3">
+        <v>13</v>
+      </c>
+      <c r="D360" t="s">
+        <v>19</v>
+      </c>
+      <c r="E360">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="361" spans="3:5">
+      <c r="C361" s="3">
+        <v>14</v>
+      </c>
+      <c r="D361" t="s">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="362" spans="3:5">
+      <c r="C362" s="3">
+        <v>15</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="363" spans="3:5">
+      <c r="C363" s="3">
+        <v>16</v>
+      </c>
+      <c r="D363" t="s">
+        <v>11</v>
+      </c>
+      <c r="E363">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="364" spans="3:5">
+      <c r="C364" s="3">
+        <v>17</v>
+      </c>
+      <c r="D364" t="s">
+        <v>22</v>
+      </c>
+      <c r="E364">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="365" spans="3:5">
+      <c r="C365" s="3">
+        <v>18</v>
+      </c>
+      <c r="D365" t="s">
+        <v>13</v>
+      </c>
+      <c r="E365">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="366" spans="3:5">
+      <c r="C366" s="3">
+        <v>19</v>
+      </c>
+      <c r="D366" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="367" spans="3:5">
+      <c r="C367" s="3">
+        <v>20</v>
+      </c>
+      <c r="D367" t="s">
+        <v>16</v>
+      </c>
+      <c r="E367">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="368" spans="3:5">
+      <c r="C368" s="3">
+        <v>21</v>
+      </c>
+      <c r="D368" t="s">
+        <v>3</v>
+      </c>
+      <c r="E368">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="369" spans="3:5">
+      <c r="C369" s="3">
+        <v>22</v>
+      </c>
+      <c r="D369" t="s">
+        <v>14</v>
+      </c>
+      <c r="E369">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="370" spans="3:5">
+      <c r="C370" s="3">
+        <v>23</v>
+      </c>
+      <c r="D370" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="371" spans="3:5">
+      <c r="C371" s="3">
+        <v>24</v>
+      </c>
+      <c r="D371" t="s">
+        <v>17</v>
+      </c>
+      <c r="E371">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="372" spans="3:5">
+      <c r="C372" s="3">
+        <v>25</v>
+      </c>
+      <c r="D372" t="s">
+        <v>23</v>
+      </c>
+      <c r="E372">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="373" spans="3:5">
+      <c r="C373" s="3">
+        <v>26</v>
+      </c>
+      <c r="D373" t="s">
+        <v>8</v>
+      </c>
+      <c r="E373">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5">
+      <c r="C374" s="3">
+        <v>27</v>
+      </c>
+      <c r="D374" t="s">
+        <v>31</v>
+      </c>
+      <c r="E374">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="375" spans="3:5">
+      <c r="C375" s="3">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>35</v>
+      </c>
+      <c r="E375">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="376" spans="3:5">
+      <c r="C376" s="3">
+        <v>29</v>
+      </c>
+      <c r="D376" t="s">
+        <v>2</v>
+      </c>
+      <c r="E376">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="377" spans="3:5">
+      <c r="C377" s="3">
+        <v>30</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="378" spans="3:5">
+      <c r="C378" s="3">
+        <v>31</v>
+      </c>
+      <c r="D378" t="s">
+        <v>5</v>
+      </c>
+      <c r="E378">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="379" spans="3:5">
+      <c r="C379" s="3">
+        <v>32</v>
+      </c>
+      <c r="D379" t="s">
+        <v>18</v>
+      </c>
+      <c r="E379">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="380" spans="3:5">
+      <c r="C380" s="3">
+        <v>33</v>
+      </c>
+      <c r="D380" t="s">
+        <v>22</v>
+      </c>
+      <c r="E380">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="381" spans="3:5">
+      <c r="C381" s="3">
+        <v>34</v>
+      </c>
+      <c r="D381" t="s">
+        <v>9</v>
+      </c>
+      <c r="E381">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="382" spans="3:5">
+      <c r="C382" s="3">
+        <v>35</v>
+      </c>
+      <c r="D382" t="s">
+        <v>16</v>
+      </c>
+      <c r="E382">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="383" spans="3:5">
+      <c r="C383" s="3">
+        <v>36</v>
+      </c>
+      <c r="D383" t="s">
+        <v>11</v>
+      </c>
+      <c r="E383">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="384" spans="3:5">
+      <c r="C384" s="3">
+        <v>37</v>
+      </c>
+      <c r="D384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="385" spans="3:5">
+      <c r="C385" s="3">
+        <v>38</v>
+      </c>
+      <c r="D385" t="s">
+        <v>17</v>
+      </c>
+      <c r="E385">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="386" spans="3:5">
+      <c r="C386" s="3">
+        <v>39</v>
+      </c>
+      <c r="D386" t="s">
+        <v>13</v>
+      </c>
+      <c r="E386">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="387" spans="3:5">
+      <c r="C387" s="3">
+        <v>40</v>
+      </c>
+      <c r="D387" t="s">
+        <v>3</v>
+      </c>
+      <c r="E387">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="388" spans="3:5">
+      <c r="C388" s="3">
+        <v>41</v>
+      </c>
+      <c r="D388" t="s">
+        <v>6</v>
+      </c>
+      <c r="E388">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="389" spans="3:5">
+      <c r="C389" s="3">
+        <v>42</v>
+      </c>
+      <c r="D389" t="s">
+        <v>31</v>
+      </c>
+      <c r="E389">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="390" spans="3:5">
+      <c r="C390" s="3">
+        <v>43</v>
+      </c>
+      <c r="D390" t="s">
+        <v>2</v>
+      </c>
+      <c r="E390">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="391" spans="3:5">
+      <c r="C391" s="3">
+        <v>44</v>
+      </c>
+      <c r="D391" t="s">
+        <v>23</v>
+      </c>
+      <c r="E391">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="392" spans="3:5">
+      <c r="C392" s="3">
+        <v>45</v>
+      </c>
+      <c r="D392" t="s">
+        <v>35</v>
+      </c>
+      <c r="E392">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="393" spans="3:5">
+      <c r="C393" s="3">
+        <v>46</v>
+      </c>
+      <c r="D393" t="s">
+        <v>8</v>
+      </c>
+      <c r="E393">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="394" spans="3:5">
+      <c r="C394" s="3">
+        <v>47</v>
+      </c>
+      <c r="D394" t="s">
+        <v>18</v>
+      </c>
+      <c r="E394">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="395" spans="3:5">
+      <c r="C395" s="3">
+        <v>48</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="396" spans="3:5">
+      <c r="C396" s="3">
+        <v>49</v>
+      </c>
+      <c r="D396" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="397" spans="3:5">
+      <c r="C397" s="3">
+        <v>50</v>
+      </c>
+      <c r="D397" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="398" spans="3:5">
+      <c r="C398" s="3">
+        <v>51</v>
+      </c>
+      <c r="D398" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="399" spans="3:5">
+      <c r="C399" s="3">
+        <v>52</v>
+      </c>
+      <c r="D399" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="400" spans="3:5">
+      <c r="C400" s="3">
+        <v>53</v>
+      </c>
+      <c r="D400" t="s">
+        <v>28</v>
+      </c>
+      <c r="E400">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5">
+      <c r="E401">
+        <f>SUM(E2:E400)</f>
+        <v>178155</v>
       </c>
     </row>
   </sheetData>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>hasen</t>
   </si>
 </sst>
 </file>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="D401" sqref="D401"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5491,6 +5488,9 @@
       </c>
     </row>
     <row r="348" spans="1:5">
+      <c r="A348">
+        <v>347</v>
+      </c>
       <c r="B348" s="1">
         <v>43496</v>
       </c>
@@ -5505,6 +5505,9 @@
       </c>
     </row>
     <row r="349" spans="1:5">
+      <c r="A349">
+        <v>348</v>
+      </c>
       <c r="C349" s="3">
         <v>2</v>
       </c>
@@ -5516,6 +5519,9 @@
       </c>
     </row>
     <row r="350" spans="1:5">
+      <c r="A350">
+        <v>349</v>
+      </c>
       <c r="C350" s="3">
         <v>3</v>
       </c>
@@ -5527,17 +5533,23 @@
       </c>
     </row>
     <row r="351" spans="1:5">
+      <c r="A351">
+        <v>350</v>
+      </c>
       <c r="C351" s="3">
         <v>4</v>
       </c>
       <c r="D351" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E351">
         <v>496</v>
       </c>
     </row>
     <row r="352" spans="1:5">
+      <c r="A352">
+        <v>351</v>
+      </c>
       <c r="C352" s="3">
         <v>5</v>
       </c>
@@ -5548,7 +5560,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="353" spans="3:5">
+    <row r="353" spans="1:5">
+      <c r="A353">
+        <v>352</v>
+      </c>
       <c r="C353" s="3">
         <v>6</v>
       </c>
@@ -5559,7 +5574,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="354" spans="3:5">
+    <row r="354" spans="1:5">
+      <c r="A354">
+        <v>353</v>
+      </c>
       <c r="C354" s="3">
         <v>7</v>
       </c>
@@ -5570,7 +5588,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="355" spans="3:5">
+    <row r="355" spans="1:5">
+      <c r="A355">
+        <v>354</v>
+      </c>
       <c r="C355" s="3">
         <v>8</v>
       </c>
@@ -5581,7 +5602,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="356" spans="3:5">
+    <row r="356" spans="1:5">
+      <c r="A356">
+        <v>355</v>
+      </c>
       <c r="C356" s="3">
         <v>9</v>
       </c>
@@ -5592,7 +5616,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="357" spans="3:5">
+    <row r="357" spans="1:5">
+      <c r="A357">
+        <v>356</v>
+      </c>
       <c r="C357" s="3">
         <v>10</v>
       </c>
@@ -5603,7 +5630,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="358" spans="3:5">
+    <row r="358" spans="1:5">
+      <c r="A358">
+        <v>357</v>
+      </c>
       <c r="C358" s="3">
         <v>11</v>
       </c>
@@ -5614,7 +5644,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="359" spans="3:5">
+    <row r="359" spans="1:5">
+      <c r="A359">
+        <v>358</v>
+      </c>
       <c r="C359" s="3">
         <v>12</v>
       </c>
@@ -5625,7 +5658,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="3:5">
+    <row r="360" spans="1:5">
+      <c r="A360">
+        <v>359</v>
+      </c>
       <c r="C360" s="3">
         <v>13</v>
       </c>
@@ -5636,7 +5672,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="361" spans="3:5">
+    <row r="361" spans="1:5">
+      <c r="A361">
+        <v>360</v>
+      </c>
       <c r="C361" s="3">
         <v>14</v>
       </c>
@@ -5647,7 +5686,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="362" spans="3:5">
+    <row r="362" spans="1:5">
+      <c r="A362">
+        <v>361</v>
+      </c>
       <c r="C362" s="3">
         <v>15</v>
       </c>
@@ -5658,7 +5700,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="363" spans="3:5">
+    <row r="363" spans="1:5">
+      <c r="A363">
+        <v>362</v>
+      </c>
       <c r="C363" s="3">
         <v>16</v>
       </c>
@@ -5669,7 +5714,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="364" spans="3:5">
+    <row r="364" spans="1:5">
+      <c r="A364">
+        <v>363</v>
+      </c>
       <c r="C364" s="3">
         <v>17</v>
       </c>
@@ -5680,7 +5728,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="365" spans="3:5">
+    <row r="365" spans="1:5">
+      <c r="A365">
+        <v>364</v>
+      </c>
       <c r="C365" s="3">
         <v>18</v>
       </c>
@@ -5691,7 +5742,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="366" spans="3:5">
+    <row r="366" spans="1:5">
+      <c r="A366">
+        <v>365</v>
+      </c>
       <c r="C366" s="3">
         <v>19</v>
       </c>
@@ -5702,7 +5756,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="3:5">
+    <row r="367" spans="1:5">
+      <c r="A367">
+        <v>366</v>
+      </c>
       <c r="C367" s="3">
         <v>20</v>
       </c>
@@ -5713,7 +5770,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="368" spans="3:5">
+    <row r="368" spans="1:5">
+      <c r="A368">
+        <v>367</v>
+      </c>
       <c r="C368" s="3">
         <v>21</v>
       </c>
@@ -5724,7 +5784,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="369" spans="3:5">
+    <row r="369" spans="1:5">
+      <c r="A369">
+        <v>368</v>
+      </c>
       <c r="C369" s="3">
         <v>22</v>
       </c>
@@ -5735,7 +5798,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="370" spans="3:5">
+    <row r="370" spans="1:5">
+      <c r="A370">
+        <v>369</v>
+      </c>
       <c r="C370" s="3">
         <v>23</v>
       </c>
@@ -5746,7 +5812,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="371" spans="3:5">
+    <row r="371" spans="1:5">
+      <c r="A371">
+        <v>370</v>
+      </c>
       <c r="C371" s="3">
         <v>24</v>
       </c>
@@ -5757,7 +5826,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="372" spans="3:5">
+    <row r="372" spans="1:5">
+      <c r="A372">
+        <v>371</v>
+      </c>
       <c r="C372" s="3">
         <v>25</v>
       </c>
@@ -5768,7 +5840,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="373" spans="3:5">
+    <row r="373" spans="1:5">
+      <c r="A373">
+        <v>372</v>
+      </c>
       <c r="C373" s="3">
         <v>26</v>
       </c>
@@ -5779,7 +5854,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="374" spans="3:5">
+    <row r="374" spans="1:5">
+      <c r="A374">
+        <v>373</v>
+      </c>
       <c r="C374" s="3">
         <v>27</v>
       </c>
@@ -5790,7 +5868,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="375" spans="3:5">
+    <row r="375" spans="1:5">
+      <c r="A375">
+        <v>374</v>
+      </c>
       <c r="C375" s="3">
         <v>28</v>
       </c>
@@ -5801,7 +5882,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="376" spans="3:5">
+    <row r="376" spans="1:5">
+      <c r="A376">
+        <v>375</v>
+      </c>
       <c r="C376" s="3">
         <v>29</v>
       </c>
@@ -5812,7 +5896,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="377" spans="3:5">
+    <row r="377" spans="1:5">
+      <c r="A377">
+        <v>376</v>
+      </c>
       <c r="C377" s="3">
         <v>30</v>
       </c>
@@ -5823,7 +5910,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="378" spans="3:5">
+    <row r="378" spans="1:5">
+      <c r="A378">
+        <v>377</v>
+      </c>
       <c r="C378" s="3">
         <v>31</v>
       </c>
@@ -5834,7 +5924,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="379" spans="3:5">
+    <row r="379" spans="1:5">
+      <c r="A379">
+        <v>378</v>
+      </c>
       <c r="C379" s="3">
         <v>32</v>
       </c>
@@ -5845,7 +5938,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="380" spans="3:5">
+    <row r="380" spans="1:5">
+      <c r="A380">
+        <v>379</v>
+      </c>
       <c r="C380" s="3">
         <v>33</v>
       </c>
@@ -5856,7 +5952,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="381" spans="3:5">
+    <row r="381" spans="1:5">
+      <c r="A381">
+        <v>380</v>
+      </c>
       <c r="C381" s="3">
         <v>34</v>
       </c>
@@ -5867,7 +5966,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="382" spans="3:5">
+    <row r="382" spans="1:5">
+      <c r="A382">
+        <v>381</v>
+      </c>
       <c r="C382" s="3">
         <v>35</v>
       </c>
@@ -5878,7 +5980,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="383" spans="3:5">
+    <row r="383" spans="1:5">
+      <c r="A383">
+        <v>382</v>
+      </c>
       <c r="C383" s="3">
         <v>36</v>
       </c>
@@ -5889,7 +5994,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="384" spans="3:5">
+    <row r="384" spans="1:5">
+      <c r="A384">
+        <v>383</v>
+      </c>
       <c r="C384" s="3">
         <v>37</v>
       </c>
@@ -5900,7 +6008,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="385" spans="3:5">
+    <row r="385" spans="1:5">
+      <c r="A385">
+        <v>384</v>
+      </c>
       <c r="C385" s="3">
         <v>38</v>
       </c>
@@ -5911,7 +6022,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="386" spans="3:5">
+    <row r="386" spans="1:5">
+      <c r="A386">
+        <v>385</v>
+      </c>
       <c r="C386" s="3">
         <v>39</v>
       </c>
@@ -5922,7 +6036,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="387" spans="3:5">
+    <row r="387" spans="1:5">
+      <c r="A387">
+        <v>386</v>
+      </c>
       <c r="C387" s="3">
         <v>40</v>
       </c>
@@ -5933,7 +6050,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="388" spans="3:5">
+    <row r="388" spans="1:5">
+      <c r="A388">
+        <v>387</v>
+      </c>
       <c r="C388" s="3">
         <v>41</v>
       </c>
@@ -5944,7 +6064,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="389" spans="3:5">
+    <row r="389" spans="1:5">
+      <c r="A389">
+        <v>388</v>
+      </c>
       <c r="C389" s="3">
         <v>42</v>
       </c>
@@ -5955,7 +6078,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="390" spans="3:5">
+    <row r="390" spans="1:5">
+      <c r="A390">
+        <v>389</v>
+      </c>
       <c r="C390" s="3">
         <v>43</v>
       </c>
@@ -5966,7 +6092,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="391" spans="3:5">
+    <row r="391" spans="1:5">
+      <c r="A391">
+        <v>390</v>
+      </c>
       <c r="C391" s="3">
         <v>44</v>
       </c>
@@ -5977,7 +6106,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="392" spans="3:5">
+    <row r="392" spans="1:5">
+      <c r="A392">
+        <v>391</v>
+      </c>
       <c r="C392" s="3">
         <v>45</v>
       </c>
@@ -5988,7 +6120,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="393" spans="3:5">
+    <row r="393" spans="1:5">
+      <c r="A393">
+        <v>392</v>
+      </c>
       <c r="C393" s="3">
         <v>46</v>
       </c>
@@ -5999,7 +6134,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="394" spans="3:5">
+    <row r="394" spans="1:5">
+      <c r="A394">
+        <v>393</v>
+      </c>
       <c r="C394" s="3">
         <v>47</v>
       </c>
@@ -6010,7 +6148,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="395" spans="3:5">
+    <row r="395" spans="1:5">
+      <c r="A395">
+        <v>394</v>
+      </c>
       <c r="C395" s="3">
         <v>48</v>
       </c>
@@ -6021,7 +6162,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="396" spans="3:5">
+    <row r="396" spans="1:5">
+      <c r="A396">
+        <v>395</v>
+      </c>
       <c r="C396" s="3">
         <v>49</v>
       </c>
@@ -6032,7 +6176,10 @@
         <v>518</v>
       </c>
     </row>
-    <row r="397" spans="3:5">
+    <row r="397" spans="1:5">
+      <c r="A397">
+        <v>396</v>
+      </c>
       <c r="C397" s="3">
         <v>50</v>
       </c>
@@ -6043,7 +6190,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="398" spans="3:5">
+    <row r="398" spans="1:5">
+      <c r="A398">
+        <v>397</v>
+      </c>
       <c r="C398" s="3">
         <v>51</v>
       </c>
@@ -6054,7 +6204,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="399" spans="3:5">
+    <row r="399" spans="1:5">
+      <c r="A399">
+        <v>398</v>
+      </c>
       <c r="C399" s="3">
         <v>52</v>
       </c>
@@ -6065,7 +6218,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="400" spans="3:5">
+    <row r="400" spans="1:5">
+      <c r="A400">
+        <v>399</v>
+      </c>
       <c r="C400" s="3">
         <v>53</v>
       </c>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="D352" sqref="D352"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5837,7 +5837,7 @@
         <v>23</v>
       </c>
       <c r="E372">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6235,7 +6235,7 @@
     <row r="401" spans="5:5">
       <c r="E401">
         <f>SUM(E2:E400)</f>
-        <v>178155</v>
+        <v>178137</v>
       </c>
     </row>
   </sheetData>

--- a/bill4/kansepur_bill4.xlsx
+++ b/bill4/kansepur_bill4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>acer</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,104 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="L7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+500 cash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2000 cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+balance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+balance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +166,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="L22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1000 cash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -232,6 +354,9 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total Diesel</t>
   </si>
 </sst>
 </file>
@@ -581,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="D385" sqref="D385"/>
+    <sheetView topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6245,18 +6370,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6275,8 +6402,32 @@
       <c r="F1" s="1">
         <v>43489</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>43490</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43491</v>
+      </c>
+      <c r="I1" s="1">
+        <v>43492</v>
+      </c>
+      <c r="J1" s="1">
+        <v>43493</v>
+      </c>
+      <c r="K1" s="1">
+        <v>43494</v>
+      </c>
+      <c r="L1" s="1">
+        <v>43495</v>
+      </c>
+      <c r="M1" s="1">
+        <v>43496</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6292,8 +6443,36 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+      <c r="N2">
+        <f>SUM(B2:M2)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6309,383 +6488,1080 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2000</v>
+      </c>
+      <c r="K3">
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <v>2000</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3">
+        <f>SUM(B3:M3)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2000</v>
+      </c>
+      <c r="L4">
+        <v>2000</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <f>SUM(B4:M4)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUM(B5:M5)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>2000</v>
+      </c>
+      <c r="I6">
+        <v>2500</v>
+      </c>
+      <c r="J6">
+        <v>2000</v>
+      </c>
+      <c r="K6">
+        <v>2000</v>
+      </c>
+      <c r="L6">
+        <v>1500</v>
+      </c>
+      <c r="M6">
+        <v>2000</v>
+      </c>
+      <c r="N6">
+        <f>SUM(B6:M6)</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>2000</v>
+      </c>
+      <c r="K7">
+        <v>2000</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>SUM(B7:M7)</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6">
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
         <v>1730</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>1500</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>1500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="F8">
+        <v>1500</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>2500</v>
+      </c>
+      <c r="I8">
+        <v>2000</v>
+      </c>
+      <c r="J8">
+        <v>2000</v>
+      </c>
+      <c r="K8">
+        <v>2000</v>
+      </c>
+      <c r="L8">
+        <v>1500</v>
+      </c>
+      <c r="M8">
+        <v>1900</v>
+      </c>
+      <c r="N8">
+        <f>SUM(B8:M8)</f>
+        <v>21130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>2500</v>
+      </c>
+      <c r="J9">
+        <v>2000</v>
+      </c>
+      <c r="K9">
+        <v>2000</v>
+      </c>
+      <c r="L9">
+        <v>1330</v>
+      </c>
+      <c r="M9">
+        <v>1500</v>
+      </c>
+      <c r="N9">
+        <f>SUM(B9:M9)</f>
+        <v>16330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+      <c r="I10">
+        <v>2000</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2000</v>
+      </c>
+      <c r="N10">
+        <f>SUM(B10:M10)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10">
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
         <v>1300</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2000</v>
+      </c>
+      <c r="I11">
+        <v>2000</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <v>2000</v>
+      </c>
+      <c r="L11">
+        <v>1700</v>
+      </c>
+      <c r="M11">
+        <v>2000</v>
+      </c>
+      <c r="N11">
+        <f>SUM(B11:M11)</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2000</v>
-      </c>
-      <c r="E11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2000</v>
+      </c>
+      <c r="N12">
+        <f>SUM(B12:M12)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2000</v>
-      </c>
-      <c r="C12">
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13">
         <v>1500</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>SUM(B13:M13)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>2000</v>
+      </c>
+      <c r="I14">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>1900</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2000</v>
+      </c>
+      <c r="M14">
+        <v>2000</v>
+      </c>
+      <c r="N14">
+        <f>SUM(B14:M14)</f>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1500</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1500</v>
+      </c>
+      <c r="I15">
+        <v>2000</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15">
+        <v>1500</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1500</v>
+      </c>
+      <c r="N15">
+        <f>SUM(B15:M15)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>5000</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>5000</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>5000</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>5000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="F16">
+        <v>3500</v>
+      </c>
+      <c r="G16">
+        <v>3000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3500</v>
+      </c>
+      <c r="J16">
+        <v>3500</v>
+      </c>
+      <c r="K16">
+        <v>5000</v>
+      </c>
+      <c r="L16">
+        <v>3500</v>
+      </c>
+      <c r="M16">
+        <v>3500</v>
+      </c>
+      <c r="N16">
+        <f>SUM(B16:M16)</f>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>2000</v>
-      </c>
-      <c r="C16">
-        <v>2000</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2500</v>
+      </c>
+      <c r="J17">
+        <v>2500</v>
+      </c>
+      <c r="K17">
+        <v>2500</v>
+      </c>
+      <c r="L17">
+        <v>2500</v>
+      </c>
+      <c r="M17">
+        <v>2500</v>
+      </c>
+      <c r="N17">
+        <f>SUM(B17:M17)</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1970</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>1500</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
+        <v>1500</v>
+      </c>
+      <c r="L18">
+        <v>1500</v>
+      </c>
+      <c r="M18">
+        <v>2000</v>
+      </c>
+      <c r="N18">
+        <f>SUM(B18:M18)</f>
+        <v>17470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>8500</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>5000</v>
+      </c>
+      <c r="M19">
+        <v>5000</v>
+      </c>
+      <c r="N19">
+        <f>SUM(B19:M19)</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2000</v>
+      </c>
+      <c r="K20">
+        <v>2000</v>
+      </c>
+      <c r="L20">
+        <v>2000</v>
+      </c>
+      <c r="M20">
+        <v>2000</v>
+      </c>
+      <c r="N20">
+        <f>SUM(B20:M20)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>2000</v>
-      </c>
-      <c r="C20">
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
         <v>2500</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2000</v>
+      </c>
+      <c r="L21">
+        <v>2000</v>
+      </c>
+      <c r="M21">
+        <v>2000</v>
+      </c>
+      <c r="N21">
+        <f>SUM(B21:M21)</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>2000</v>
-      </c>
-      <c r="E21">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
         <v>1500</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2000</v>
+      </c>
+      <c r="I22">
+        <v>2000</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2000</v>
+      </c>
+      <c r="M22">
+        <v>2000</v>
+      </c>
+      <c r="N22">
+        <f>SUM(B22:M22)</f>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>2000</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <v>2000</v>
+      </c>
+      <c r="C23">
         <v>2500</v>
       </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2000</v>
+      </c>
+      <c r="K23">
+        <v>2000</v>
+      </c>
+      <c r="L23">
+        <v>2000</v>
+      </c>
+      <c r="M23">
+        <v>2000</v>
+      </c>
+      <c r="N23">
+        <f>SUM(B23:M23)</f>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>2000</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
+      <c r="F24">
+        <v>2000</v>
+      </c>
+      <c r="G24">
+        <v>2000</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2000</v>
+      </c>
+      <c r="K24">
+        <v>2000</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>SUM(B24:M24)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>2000</v>
-      </c>
-      <c r="C24">
+      <c r="B25">
+        <v>2000</v>
+      </c>
+      <c r="C25">
         <v>3470</v>
       </c>
-      <c r="D24">
-        <v>2000</v>
-      </c>
-      <c r="E24">
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
         <v>3500</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="F25">
+        <v>6030</v>
+      </c>
+      <c r="G25">
+        <v>3000</v>
+      </c>
+      <c r="H25">
+        <v>3500</v>
+      </c>
+      <c r="I25">
+        <v>3000</v>
+      </c>
+      <c r="J25">
+        <v>5100</v>
+      </c>
+      <c r="K25">
+        <v>9500</v>
+      </c>
+      <c r="L25">
+        <v>7970</v>
+      </c>
+      <c r="M25">
+        <v>2100</v>
+      </c>
+      <c r="N25">
+        <f>SUM(B25:M25)</f>
+        <v>51170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <f>SUM(B2:B24)</f>
+      <c r="B26">
+        <f>SUM(B2:B25)</f>
         <v>36500</v>
       </c>
-      <c r="C25">
-        <f>SUM(C2:C24)</f>
+      <c r="C26">
+        <f>SUM(C2:C25)</f>
         <v>32500</v>
       </c>
-      <c r="D25">
-        <f>SUM(D2:D24)</f>
+      <c r="D26">
+        <f>SUM(D2:D25)</f>
         <v>18500</v>
       </c>
-      <c r="E25">
-        <f>SUM(E2:E24)</f>
+      <c r="E26">
+        <f>SUM(E2:E25)</f>
         <v>25000</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F2:F25)</f>
+        <v>22500</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G2:G25)</f>
+        <v>16000</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H2:H25)</f>
+        <v>28500</v>
+      </c>
+      <c r="I26">
+        <f>SUM(I2:I25)</f>
+        <v>31500</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J2:J25)</f>
+        <v>41000</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K2:K25)</f>
+        <v>46000</v>
+      </c>
+      <c r="L26">
+        <f>SUM(L2:L25)</f>
+        <v>42500</v>
+      </c>
+      <c r="M26">
+        <f>SUM(M2:M25)</f>
+        <v>44000</v>
+      </c>
+      <c r="N26">
+        <f>SUM(B26:M26)</f>
+        <v>384500</v>
       </c>
     </row>
   </sheetData>
